--- a/ExcellSheets/LT - Copy.xlsx
+++ b/ExcellSheets/LT - Copy.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="85">
   <si>
     <t>Crt.</t>
   </si>
@@ -129,7 +129,7 @@
     <t>Blog C Soma name</t>
   </si>
   <si>
-    <t>www. Soma . Com</t>
+    <t>www.soma.com</t>
   </si>
   <si>
     <t>Soma description</t>
@@ -189,229 +189,88 @@
     <t>Email Thread</t>
   </si>
   <si>
-    <t>_EMPTY_</t>
-  </si>
-  <si>
-    <t>www. A .com / gihub 1</t>
-  </si>
-  <si>
-    <t>10</t>
+    <t>6</t>
+  </si>
+  <si>
+    <t>What it For Real</t>
+  </si>
+  <si>
+    <t>www.banned-spirit.com/all-to-consider</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>1 - To Send Email</t>
+  </si>
+  <si>
+    <t>Email 6</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>Ad Astra</t>
+  </si>
+  <si>
+    <t>www.chariot.com/hold-my-beer</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>Email 14</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>Is a Sword a Good Home Defense Weapon?</t>
+  </si>
+  <si>
+    <t>https://www.apartmenttherapy.com/cool-home-defense-systems-for-under-100-dollars</t>
+  </si>
+  <si>
+    <t>50</t>
   </si>
   <si>
     <t>0 - To Start</t>
   </si>
   <si>
-    <t>Email 1</t>
-  </si>
-  <si>
-    <t>www. A .com / Relativist 2</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>9 - Refused</t>
-  </si>
-  <si>
-    <t>Email 2</t>
-  </si>
-  <si>
-    <t>www. A .com / Panicus 3</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>3 - Done</t>
-  </si>
-  <si>
-    <t>Email 3</t>
-  </si>
-  <si>
-    <t>www. A .com / Some 4</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>2 - To Resend Email</t>
-  </si>
-  <si>
-    <t>Email 4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>www. A  .com / Sex 5</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>1 - To Send Email</t>
-  </si>
-  <si>
-    <t>Email 5</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>What it For Real</t>
-  </si>
-  <si>
-    <t>www. B .com / Alaric 1</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>Email 6</t>
+    <t>19</t>
+  </si>
+  <si>
+    <t>Should you Decorate your Hourse with Traditional Edged Weapons?</t>
+  </si>
+  <si>
+    <t>https://www.brightbazaarblog.com/japanese-martial-design-for-your-home</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>How to Best Spend 500 dollar on a Traditional Japanese Sword?</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>How to Eat Curry</t>
   </si>
   <si>
     <t>7</t>
   </si>
   <si>
-    <t>www. B  .com / Arch 22</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>10 - N/A</t>
-  </si>
-  <si>
-    <t>Email 7</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>www. B  .com / Arch 3</t>
-  </si>
-  <si>
-    <t>Email 8</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>www. B  .com / Arch 4</t>
-  </si>
-  <si>
-    <t>Email 9</t>
-  </si>
-  <si>
-    <t>www. B .com / Some 5</t>
-  </si>
-  <si>
-    <t>Email 10</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>www. C .com / Some 1</t>
-  </si>
-  <si>
-    <t>Email 11</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>www. C  .com / Sex 2</t>
-  </si>
-  <si>
-    <t>Email 12</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>www. C  .com / Sex 3</t>
-  </si>
-  <si>
-    <t>Email 13</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>Adhar</t>
-  </si>
-  <si>
-    <t>www. C  .com / Sex 4</t>
-  </si>
-  <si>
-    <t>Email 14</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>ddddddddddddddd</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>Email 15</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>nnnnnnnnnnnnnn</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>Email 16</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>www. E .com / gihub 1</t>
-  </si>
-  <si>
-    <t>Email 17</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>Is a Sword a Good Home Defense Weapon?</t>
-  </si>
-  <si>
-    <t>https://www.apartmenttherapy.com/cool-home-defense-systems-for-under-100-dollars</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>Should you Decorate your Hourse with Traditional Edged Weapons?</t>
-  </si>
-  <si>
-    <t>https://www.brightbazaarblog.com/japanese-martial-design-for-your-home</t>
-  </si>
-  <si>
-    <t>How to Best Spend 500 dollar on a Traditional Japanese Sword?</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>How to Eat Curry</t>
+    <t>https://www.brightbazaarblog.com/best-turkish-rings</t>
+  </si>
+  <si>
+    <t>45</t>
   </si>
   <si>
     <t>Page Link for Article</t>
   </si>
   <si>
-    <t>www.greatfoods.com/limit-a-counter</t>
+    <t>www.brightbazaarcom/limit-a-counter</t>
   </si>
   <si>
     <t>https://armablade.com/is-a-sword-a-good-home-defense-weapon/</t>
@@ -653,7 +512,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -687,97 +546,97 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="D3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E3" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F3" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="D4" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E4" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F4" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="G4" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="H4" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="D5" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="E5" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F5" t="s">
         <v>68</v>
@@ -786,18 +645,18 @@
         <v>69</v>
       </c>
       <c r="H5" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="D6" t="s">
         <v>72</v>
@@ -806,428 +665,64 @@
         <v>73</v>
       </c>
       <c r="F6" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="G6" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="H6" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D7" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E7" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F7" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="G7" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="H7" t="s">
-        <v>80</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B8" t="s">
         <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="D8" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E8" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="F8" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="G8" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="H8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>86</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D9" t="s">
-        <v>87</v>
-      </c>
-      <c r="E9" t="s">
-        <v>83</v>
-      </c>
-      <c r="F9" t="s">
-        <v>83</v>
-      </c>
-      <c r="G9" t="s">
-        <v>61</v>
-      </c>
-      <c r="H9" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>89</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D10" t="s">
-        <v>90</v>
-      </c>
-      <c r="E10" t="s">
-        <v>83</v>
-      </c>
-      <c r="F10" t="s">
-        <v>83</v>
-      </c>
-      <c r="G10" t="s">
-        <v>61</v>
-      </c>
-      <c r="H10" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>56</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>54</v>
-      </c>
-      <c r="D11" t="s">
-        <v>92</v>
-      </c>
-      <c r="E11" t="s">
-        <v>68</v>
-      </c>
-      <c r="F11" t="s">
-        <v>68</v>
-      </c>
-      <c r="G11" t="s">
-        <v>69</v>
-      </c>
-      <c r="H11" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>94</v>
-      </c>
-      <c r="B12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" t="s">
-        <v>54</v>
-      </c>
-      <c r="D12" t="s">
-        <v>95</v>
-      </c>
-      <c r="E12" t="s">
-        <v>68</v>
-      </c>
-      <c r="F12" t="s">
-        <v>68</v>
-      </c>
-      <c r="G12" t="s">
-        <v>69</v>
-      </c>
-      <c r="H12" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>97</v>
-      </c>
-      <c r="B13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" t="s">
-        <v>54</v>
-      </c>
-      <c r="D13" t="s">
-        <v>98</v>
-      </c>
-      <c r="E13" t="s">
-        <v>73</v>
-      </c>
-      <c r="F13" t="s">
-        <v>73</v>
-      </c>
-      <c r="G13" t="s">
-        <v>74</v>
-      </c>
-      <c r="H13" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>100</v>
-      </c>
-      <c r="B14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" t="s">
-        <v>54</v>
-      </c>
-      <c r="D14" t="s">
-        <v>101</v>
-      </c>
-      <c r="E14" t="s">
-        <v>73</v>
-      </c>
-      <c r="F14" t="s">
-        <v>73</v>
-      </c>
-      <c r="G14" t="s">
-        <v>74</v>
-      </c>
-      <c r="H14" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>103</v>
-      </c>
-      <c r="B15" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" t="s">
-        <v>104</v>
-      </c>
-      <c r="D15" t="s">
-        <v>105</v>
-      </c>
-      <c r="E15" t="s">
-        <v>73</v>
-      </c>
-      <c r="F15" t="s">
-        <v>73</v>
-      </c>
-      <c r="G15" t="s">
-        <v>74</v>
-      </c>
-      <c r="H15" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>107</v>
-      </c>
-      <c r="B16" t="s">
-        <v>54</v>
-      </c>
-      <c r="C16" t="s">
-        <v>54</v>
-      </c>
-      <c r="D16" t="s">
-        <v>108</v>
-      </c>
-      <c r="E16" t="s">
-        <v>109</v>
-      </c>
-      <c r="F16" t="s">
-        <v>109</v>
-      </c>
-      <c r="G16" t="s">
-        <v>57</v>
-      </c>
-      <c r="H16" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>111</v>
-      </c>
-      <c r="B17" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" t="s">
-        <v>54</v>
-      </c>
-      <c r="D17" t="s">
-        <v>112</v>
-      </c>
-      <c r="E17" t="s">
-        <v>113</v>
-      </c>
-      <c r="F17" t="s">
-        <v>113</v>
-      </c>
-      <c r="G17" t="s">
-        <v>74</v>
-      </c>
-      <c r="H17" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>115</v>
-      </c>
-      <c r="B18" t="s">
-        <v>54</v>
-      </c>
-      <c r="C18" t="s">
-        <v>54</v>
-      </c>
-      <c r="D18" t="s">
-        <v>116</v>
-      </c>
-      <c r="E18" t="s">
-        <v>56</v>
-      </c>
-      <c r="F18" t="s">
-        <v>56</v>
-      </c>
-      <c r="G18" t="s">
-        <v>57</v>
-      </c>
-      <c r="H18" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>118</v>
-      </c>
-      <c r="B19" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" t="s">
-        <v>119</v>
-      </c>
-      <c r="D19" t="s">
-        <v>120</v>
-      </c>
-      <c r="E19" t="s">
-        <v>64</v>
-      </c>
-      <c r="F19" t="s">
-        <v>64</v>
-      </c>
-      <c r="G19" t="s">
-        <v>57</v>
-      </c>
-      <c r="H19" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>121</v>
-      </c>
-      <c r="B20" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" t="s">
-        <v>122</v>
-      </c>
-      <c r="D20" t="s">
-        <v>123</v>
-      </c>
-      <c r="E20" t="s">
-        <v>83</v>
-      </c>
-      <c r="F20" t="s">
-        <v>64</v>
-      </c>
-      <c r="G20" t="s">
-        <v>57</v>
-      </c>
-      <c r="H20" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>79</v>
-      </c>
-      <c r="B21" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" t="s">
-        <v>124</v>
-      </c>
-      <c r="D21" t="s">
-        <v>123</v>
-      </c>
-      <c r="E21" t="s">
-        <v>83</v>
-      </c>
-      <c r="F21" t="s">
-        <v>64</v>
-      </c>
-      <c r="G21" t="s">
-        <v>57</v>
-      </c>
-      <c r="H21" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s">
-        <v>125</v>
-      </c>
-      <c r="B22" t="s">
-        <v>23</v>
-      </c>
-      <c r="C22" t="s">
-        <v>126</v>
-      </c>
-      <c r="D22" t="s">
-        <v>123</v>
-      </c>
-      <c r="E22" t="s">
-        <v>83</v>
-      </c>
-      <c r="F22" t="s">
-        <v>64</v>
-      </c>
-      <c r="G22" t="s">
-        <v>57</v>
-      </c>
-      <c r="H22" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1252,7 +747,7 @@
         <v>48</v>
       </c>
       <c r="C1" t="s">
-        <v>127</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2">
@@ -1260,10 +755,10 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>126</v>
+        <v>76</v>
       </c>
       <c r="C2" t="s">
-        <v>128</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3">
@@ -1271,10 +766,10 @@
         <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>119</v>
+        <v>66</v>
       </c>
       <c r="C3" t="s">
-        <v>129</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4">
@@ -1282,10 +777,10 @@
         <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>122</v>
+        <v>71</v>
       </c>
       <c r="C4" t="s">
-        <v>130</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5">
@@ -1293,10 +788,10 @@
         <v>43</v>
       </c>
       <c r="B5" t="s">
-        <v>124</v>
+        <v>74</v>
       </c>
       <c r="C5" t="s">
-        <v>131</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
